--- a/NopCommerce/DataExcel/db_login.xlsx
+++ b/NopCommerce/DataExcel/db_login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KATALON DRIVE\Katalon Project NOPCommerce\NopCommerce\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC342E6E-DE73-4A3C-8DE3-DD4D3FC73ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925A3E75-7352-4560-850E-B4A49ACAA63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{11C24734-D4B5-48A9-8A14-512095768D3E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -36,14 +36,20 @@
     <t>Lepkom@123</t>
   </si>
   <si>
-    <t>rhhezkyillma@gmail.com</t>
+    <t>Lepkom@124</t>
+  </si>
+  <si>
+    <t>rhhezkyillmaaa@gmail.com</t>
+  </si>
+  <si>
+    <t>reezkyillmaa@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +61,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -399,13 +411,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C838F40-10C1-4185-9963-C12C11D7F08B}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -417,16 +432,27 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{F0332F76-27AB-45BD-8E59-07361BB4629C}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{A377BA45-3DEC-48FE-B640-A78B426B3DFA}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{258A3811-19E2-4A04-A171-9F9F9744AE1F}"/>
+    <hyperlink ref="B3" r:id="rId4" display="Lepkom@123" xr:uid="{CDEB4D36-7F72-4681-83C0-D4FECA8A560E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
